--- a/Data/EC/NIT-8001712445.xlsx
+++ b/Data/EC/NIT-8001712445.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8C63C86-CA2C-4C2A-987C-84C370FD5BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9687A4AB-AE82-4970-A457-2FECC0AA87F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CA5283BC-23E0-4B49-9D53-6870C3299165}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F495706-BBC7-40FA-B85C-F7514F12C3A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,39 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1140375567</t>
+  </si>
+  <si>
+    <t>JOSE TRINIDAD SALAS URAY</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>91176056</t>
   </si>
   <si>
@@ -80,13 +113,40 @@
     <t>ANDRES MAURICIO PUERTA BELEÑO</t>
   </si>
   <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
     <t>1703</t>
   </si>
   <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
+    <t>73092217</t>
+  </si>
+  <si>
+    <t>LAUREANO ANTONIO PINEDO REVOLLO</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>1050968034</t>
+  </si>
+  <si>
+    <t>LEONARDO DE JESUS MARTINEZ CABARCAS</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>1001805299</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO JUNCO AGUILAR</t>
+  </si>
+  <si>
+    <t>2507</t>
   </si>
   <si>
     <t>1052096548</t>
@@ -104,58 +164,37 @@
     <t>JOFRET CASTELLAR MEDINA</t>
   </si>
   <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
     <t>1804</t>
   </si>
   <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1140375567</t>
-  </si>
-  <si>
-    <t>JOSE TRINIDAD SALAS URAY</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
+    <t>1143392742</t>
+  </si>
+  <si>
+    <t>JUAN CAMILO SANCHEZ TORDECILIA</t>
+  </si>
+  <si>
+    <t>1041976984</t>
+  </si>
+  <si>
+    <t>KEINER JOSE CASTELLAR DE HOYOS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -569,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF50976-4B92-7266-BA02-A09876483C77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0728FE25-5FEF-AC33-CE15-52EEB2FBC9A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F399E0-261A-4E5E-996B-47E5B0AEA76F}">
-  <dimension ref="B2:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675AC1A6-3CBE-428B-85A9-5585BB43F007}">
+  <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -932,7 +971,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -945,7 +984,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -990,7 +1029,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1022,12 +1061,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1166520</v>
+        <v>2875398</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1038,17 +1077,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1075,13 +1114,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1098,10 +1137,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24000</v>
+        <v>98300</v>
       </c>
       <c r="G16" s="18">
-        <v>600000</v>
+        <v>4070310</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1112,19 +1151,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>98300</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>4070310</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1135,19 +1174,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>98300</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>4070310</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1158,19 +1197,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>98300</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>4070310</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1181,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>27083</v>
+        <v>98300</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>4070310</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1204,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>20656</v>
+        <v>98300</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>4070310</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1227,19 +1266,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>88470</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>4070310</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1250,19 +1289,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>68810</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>4070310</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1273,19 +1312,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>78640</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>4070310</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1302,13 +1341,13 @@
         <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>24000</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>600000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1319,19 +1358,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1342,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1365,19 +1404,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>78640</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>4165740</v>
+        <v>737717</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1388,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F29" s="18">
-        <v>68810</v>
+        <v>120000</v>
       </c>
       <c r="G29" s="18">
-        <v>4165740</v>
+        <v>3000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1411,19 +1450,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="E30" s="16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>88470</v>
+        <v>120000</v>
       </c>
       <c r="G30" s="18">
-        <v>4165740</v>
+        <v>3000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1434,19 +1473,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18">
-        <v>98300</v>
+        <v>11388</v>
       </c>
       <c r="G31" s="18">
-        <v>4165740</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1457,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" s="18">
-        <v>98300</v>
+        <v>80000</v>
       </c>
       <c r="G32" s="18">
-        <v>4165740</v>
+        <v>2000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1480,19 +1519,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F33" s="18">
-        <v>98300</v>
+        <v>27083</v>
       </c>
       <c r="G33" s="18">
-        <v>4165740</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1503,19 +1542,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F34" s="18">
-        <v>98300</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>4165740</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1526,75 +1565,397 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F35" s="18">
-        <v>98300</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>4165740</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="24">
-        <v>98300</v>
-      </c>
-      <c r="G36" s="24">
-        <v>4165740</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G36" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G37" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G38" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G39" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="18">
+        <v>20656</v>
+      </c>
+      <c r="G40" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="H41" s="1" t="s">
+      <c r="D41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="18">
+        <v>152000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="H42" s="1" t="s">
+      <c r="D42" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="E42" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="18">
+        <v>152000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="18">
+        <v>152000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="18">
+        <v>152000</v>
+      </c>
+      <c r="G44" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="18">
+        <v>152000</v>
+      </c>
+      <c r="G45" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="18">
+        <v>152000</v>
+      </c>
+      <c r="G46" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="18">
+        <v>152000</v>
+      </c>
+      <c r="G47" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="18">
+        <v>152000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="18">
+        <v>152000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="24">
+        <v>9490</v>
+      </c>
+      <c r="G50" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="H55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="H56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H55:J55"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8001712445.xlsx
+++ b/Data/EC/NIT-8001712445.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91BDC8DA-CA95-4C37-95C9-3456F4EDA3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D88A710-3E79-4C67-B8E6-C9A5AC483226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93D3C3FC-E4AD-4C1A-8764-B60D83CB1054}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{676308D1-FEDA-436D-B8D7-FA6983E618C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -269,7 +267,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -463,29 +463,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,19 +504,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C527FA1-6D3E-164F-CE36-60E230788133}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72A4A24-B976-C029-5CF3-38B1FA500078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72980C-B785-48F9-853F-9C9EAE5C43C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D08C56-5891-4B7B-A7AA-0EEB2C926338}">
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -943,49 +949,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -993,7 +999,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8001712445</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1166520</v>
       </c>
@@ -1094,18 +1100,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>24000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>600000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1117,18 +1123,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>29509</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1500000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1140,18 +1146,18 @@
       <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>29509</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1500000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1163,18 +1169,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>29509</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1500000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1186,18 +1192,18 @@
       <c r="D20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>27083</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>781242</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1209,18 +1215,18 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>20656</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>781242</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1232,18 +1238,18 @@
       <c r="D22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>29509</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>781242</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1255,18 +1261,18 @@
       <c r="D23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>29509</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>781242</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1278,18 +1284,18 @@
       <c r="D24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>29509</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>781242</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1301,18 +1307,18 @@
       <c r="D25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>29509</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>781242</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1324,18 +1330,18 @@
       <c r="D26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>31249</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>781242</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1347,18 +1353,18 @@
       <c r="D27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>31249</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>781242</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1370,18 +1376,18 @@
       <c r="D28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>78640</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>4165740</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1393,18 +1399,18 @@
       <c r="D29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>68810</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>4165740</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1416,18 +1422,18 @@
       <c r="D30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>88470</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>4165740</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1439,18 +1445,18 @@
       <c r="D31" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>98300</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>4165740</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1462,18 +1468,18 @@
       <c r="D32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>98300</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>4165740</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1485,18 +1491,18 @@
       <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>98300</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>4165740</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1508,18 +1514,18 @@
       <c r="D34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>98300</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>4165740</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1531,47 +1537,47 @@
       <c r="D35" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>98300</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>4165740</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="26">
         <v>98300</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="26">
         <v>4165740</v>
       </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="34"/>
       <c r="H41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1579,10 +1585,10 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="34"/>
       <c r="H42" s="1" t="s">
         <v>50</v>
       </c>
